--- a/group-reports/tables/shahriar-1-2-tests-first-results-test-3.xlsx
+++ b/group-reports/tables/shahriar-1-2-tests-first-results-test-3.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>62 msec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>2945</t>
+          <t>2945 msec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>1279.15</t>
+          <t>1279.15 msec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56 msec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>2478</t>
+          <t>2478 msec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>1279.20</t>
+          <t>1279.20 msec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>68 msec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2455 msec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>1279.27</t>
+          <t>1279.27 msec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>77 msec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2500 msec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>1279.08</t>
+          <t>1279.08 msec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>75 msec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2715</t>
+          <t>2715 msec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>1279.16</t>
+          <t>1279.16 msec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>41 msec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>3353</t>
+          <t>3353 msec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>1279.31</t>
+          <t>1279.31 msec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20 msec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2634</t>
+          <t>2634 msec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>1279.22</t>
+          <t>1279.22 msec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>74 msec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>2741 msec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>1278.84</t>
+          <t>1278.84 msec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>106 msec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2506</t>
+          <t>2506 msec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>1279.04</t>
+          <t>1279.04 msec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13 msec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>2469</t>
+          <t>2469 msec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>1279.00</t>
+          <t>1279.00 msec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>73 msec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2620</t>
+          <t>2620 msec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>1279.32</t>
+          <t>1279.32 msec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>75 msec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2607 msec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>1279.02</t>
+          <t>1279.02 msec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>59 msec</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>2626</t>
+          <t>2626 msec</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>1279.40</t>
+          <t>1279.40 msec</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
